--- a/wwlLancMsc_data/dataDictionary.xlsx
+++ b/wwlLancMsc_data/dataDictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R_projects\studentData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livelancsac-my.sharepoint.com/personal/adnanmmb_lancaster_ac_uk/Documents/MichaelMas Term/SCC-450 -Intro to AI/Final Project- Group 19/wwlLancMsc_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{AC18906E-F7C5-4E1E-BFF7-B27552C193E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7460AC32-4EC3-4279-8C84-C5EF64F7EB74}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{AC18906E-F7C5-4E1E-BFF7-B27552C193E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBC53C66-8486-40EB-8694-015A1FF4E074}"/>
   <bookViews>
-    <workbookView xWindow="4725" yWindow="1035" windowWidth="20730" windowHeight="11835" xr2:uid="{290F325C-FF08-46D0-8C78-02E0FDA84A53}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{290F325C-FF08-46D0-8C78-02E0FDA84A53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -835,16 +835,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DE5673-06FD-47FA-8861-7B0812E54659}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -852,7 +853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -860,7 +861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -868,7 +869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -876,7 +877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -884,7 +885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -892,7 +893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -900,7 +901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -908,7 +909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -916,7 +917,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -924,7 +925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -932,7 +933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -940,7 +941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -948,22 +949,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -971,17 +972,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -989,7 +990,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -997,7 +998,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -1005,7 +1006,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1013,7 +1014,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -1021,7 +1022,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -1029,17 +1030,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -1047,7 +1048,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -1055,7 +1056,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -1063,12 +1064,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -1076,7 +1077,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -1084,12 +1085,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -1097,7 +1098,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -1105,12 +1106,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>64</v>
       </c>
@@ -1118,7 +1119,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -1126,7 +1127,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -1134,17 +1135,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -1152,7 +1153,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>74</v>
       </c>
@@ -1160,12 +1161,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>77</v>
       </c>
@@ -1173,7 +1174,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>79</v>
       </c>
@@ -1181,22 +1182,22 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>84</v>
       </c>
@@ -1204,7 +1205,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -1212,22 +1213,22 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>91</v>
       </c>
@@ -1235,7 +1236,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>93</v>
       </c>
@@ -1243,17 +1244,17 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>97</v>
       </c>
@@ -1261,122 +1262,122 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>122</v>
       </c>
@@ -1384,87 +1385,87 @@
         <v>123</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>140</v>
       </c>

--- a/wwlLancMsc_data/dataDictionary.xlsx
+++ b/wwlLancMsc_data/dataDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livelancsac-my.sharepoint.com/personal/adnanmmb_lancaster_ac_uk/Documents/MichaelMas Term/SCC-450 -Intro to AI/Final Project- Group 19/wwlLancMsc_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{AC18906E-F7C5-4E1E-BFF7-B27552C193E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBC53C66-8486-40EB-8694-015A1FF4E074}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{AC18906E-F7C5-4E1E-BFF7-B27552C193E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{028005B9-A3B6-476B-8FB8-CA26C193156F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{290F325C-FF08-46D0-8C78-02E0FDA84A53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{290F325C-FF08-46D0-8C78-02E0FDA84A53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="143">
   <si>
     <t>site_national_code</t>
   </si>
@@ -462,6 +462,9 @@
   </si>
   <si>
     <t>Patient postcodes were also used to extract deprivation data from the Lower Layer Super Output Area (LSOA), representing areas with approximately 1,500 residents or 650 households, to obtain localized deprivation information. The English Indices of Deprivation rank each LSOA across seven domains: income, employment, education, health and disability, crime, barriers to housing and services, and living environment. 1 is most deprived.</t>
+  </si>
+  <si>
+    <t>secondary diagnosis during patient spell</t>
   </si>
 </sst>
 </file>
@@ -514,6 +517,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -835,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DE5673-06FD-47FA-8861-7B0812E54659}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -847,633 +854,639 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>109</v>
+      </c>
+      <c r="B26" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>140</v>
+      </c>
+      <c r="B41" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>86</v>
+      </c>
+      <c r="B42" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>35</v>
+      </c>
+      <c r="B45" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>29</v>
+      </c>
+      <c r="B49" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>86</v>
-      </c>
-      <c r="B52" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>122</v>
+      </c>
+      <c r="B53" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>77</v>
+      </c>
+      <c r="B54" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>47</v>
+      </c>
+      <c r="B55" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>93</v>
-      </c>
-      <c r="B57" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>97</v>
-      </c>
-      <c r="B60" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>99</v>
+        <v>79</v>
+      </c>
+      <c r="B61" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="B64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="B71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="B73" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="B76" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>124</v>
+        <v>14</v>
+      </c>
+      <c r="B85" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>125</v>
+        <v>16</v>
+      </c>
+      <c r="B86" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>126</v>
+        <v>64</v>
+      </c>
+      <c r="B87" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>127</v>
+        <v>66</v>
+      </c>
+      <c r="B88" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>128</v>
+        <v>39</v>
+      </c>
+      <c r="B89" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>130</v>
+        <v>33</v>
+      </c>
+      <c r="B91" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>131</v>
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>132</v>
+        <v>41</v>
+      </c>
+      <c r="B93" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>134</v>
+        <v>43</v>
+      </c>
+      <c r="B95" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>135</v>
+        <v>18</v>
+      </c>
+      <c r="B96" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>136</v>
+        <v>22</v>
+      </c>
+      <c r="B97" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>137</v>
+        <v>20</v>
+      </c>
+      <c r="B98" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>138</v>
+        <v>24</v>
+      </c>
+      <c r="B99" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>140</v>
-      </c>
-      <c r="B101" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B101">
+    <sortCondition ref="A1:A101"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/wwlLancMsc_data/dataDictionary.xlsx
+++ b/wwlLancMsc_data/dataDictionary.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="12" documentId="8_{AC18906E-F7C5-4E1E-BFF7-B27552C193E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{028005B9-A3B6-476B-8FB8-CA26C193156F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{290F325C-FF08-46D0-8C78-02E0FDA84A53}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{290F325C-FF08-46D0-8C78-02E0FDA84A53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>site_national_code</t>
   </si>
@@ -842,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DE5673-06FD-47FA-8861-7B0812E54659}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
